--- a/source/표준 위험요인.xlsx
+++ b/source/표준 위험요인.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\my_develop\matching\source\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6927379C-D80D-4A32-B94D-095BCADE82F2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C51E9C00-3301-4E6A-956A-FD32A9D162AA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="885" yWindow="510" windowWidth="13560" windowHeight="12450" xr2:uid="{7DE75812-C78E-412C-9C8F-3FB0D22FA83F}"/>
+    <workbookView xWindow="14415" yWindow="150" windowWidth="13530" windowHeight="7020" xr2:uid="{7DE75812-C78E-412C-9C8F-3FB0D22FA83F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -59,10 +59,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>지게차, 운전</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>위_1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -72,6 +68,54 @@
   </si>
   <si>
     <t>위_3</t>
+  </si>
+  <si>
+    <t>지게차</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R_vector</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>위_4</t>
+  </si>
+  <si>
+    <t>위_5</t>
+  </si>
+  <si>
+    <t>위_6</t>
+  </si>
+  <si>
+    <t>위_7</t>
+  </si>
+  <si>
+    <t>위험요인4</t>
+  </si>
+  <si>
+    <t>위험요인5</t>
+  </si>
+  <si>
+    <t>위험요인6</t>
+  </si>
+  <si>
+    <t>위험요인7</t>
+  </si>
+  <si>
+    <t>사다리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>취부, 그라인더</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 캐리지, 취부, 사다리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>작업대, 피스, 취부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -438,10 +482,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40BEB60D-F08D-4AA7-B205-DF61B0E4BD78}">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -450,7 +494,7 @@
     <col min="3" max="3" width="35.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -460,10 +504,13 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>3</v>
@@ -472,9 +519,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>4</v>
@@ -483,25 +530,65 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/source/표준 위험요인.xlsx
+++ b/source/표준 위험요인.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\my_develop\matching\source\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C51E9C00-3301-4E6A-956A-FD32A9D162AA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD745524-9E5C-4ECF-8BF6-5C52C882F0D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14415" yWindow="150" windowWidth="13530" windowHeight="7020" xr2:uid="{7DE75812-C78E-412C-9C8F-3FB0D22FA83F}"/>
+    <workbookView xWindow="1290" yWindow="2850" windowWidth="12615" windowHeight="12000" xr2:uid="{7DE75812-C78E-412C-9C8F-3FB0D22FA83F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -55,10 +55,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>용접, 슬래그</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>위_1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -115,6 +111,10 @@
   </si>
   <si>
     <t>작업대, 피스, 취부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>용접, 슬래그, 용접기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -485,7 +485,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -505,12 +505,12 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>3</v>
@@ -521,68 +521,68 @@
     </row>
     <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
